--- a/data/trans_orig/IP41-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA29C3C-C91F-4561-8877-7252549BA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823BFF6C-5BBE-4534-B535-48B62C1047C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFB4017E-05B2-414D-A7B9-C32F8B4DBEC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13ED17E1-833D-4015-AF00-BD58289A66F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="383">
   <si>
     <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -125,997 +125,1006 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
     <t>91,0%</t>
   </si>
   <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>9,49%</t>
   </si>
   <si>
     <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
   </si>
   <si>
     <t>98,75%</t>
@@ -1590,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EA194D-F0B2-45EB-ABE7-409831846880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C16AD63-ED68-461D-BA0E-EC6508754995}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2959,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B390662-BAE3-4727-BFCA-4966D7F01A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86D1A9-644F-4FF7-A3A3-F5A94CCA3FB2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3119,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3143,10 @@
         <v>23814</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3149,10 +3158,10 @@
         <v>21704</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3164,13 +3173,13 @@
         <v>45518</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3194,13 @@
         <v>1641</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3200,13 +3209,13 @@
         <v>669</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3215,13 +3224,13 @@
         <v>2310</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,37 +3304,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3349,13 @@
         <v>112619</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>148</v>
@@ -3355,7 +3364,7 @@
         <v>106451</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>155</v>
@@ -3406,13 +3415,13 @@
         <v>10533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3421,13 +3430,13 @@
         <v>27143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3546,13 +3555,13 @@
         <v>205656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>285</v>
@@ -3561,13 +3570,13 @@
         <v>184441</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>583</v>
@@ -3576,13 +3585,13 @@
         <v>390097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3606,13 @@
         <v>18179</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -3612,13 +3621,13 @@
         <v>21917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -3627,13 +3636,13 @@
         <v>40096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3722,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3737,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3761,13 @@
         <v>146428</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -3767,13 +3776,13 @@
         <v>138949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>440</v>
@@ -3782,13 +3791,13 @@
         <v>285376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3812,13 @@
         <v>20164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3818,13 +3827,13 @@
         <v>15709</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3833,13 +3842,13 @@
         <v>35874</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3928,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3958,13 +3967,13 @@
         <v>176714</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>238</v>
@@ -3973,13 +3982,13 @@
         <v>182179</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>478</v>
@@ -3988,13 +3997,13 @@
         <v>358893</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4018,13 @@
         <v>31682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4024,13 +4033,13 @@
         <v>28121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4039,13 +4048,13 @@
         <v>59803</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4173,13 @@
         <v>665232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>912</v>
@@ -4179,13 +4188,13 @@
         <v>633723</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>1859</v>
@@ -4194,13 +4203,13 @@
         <v>1298955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4224,13 @@
         <v>88275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>112</v>
@@ -4230,13 +4239,13 @@
         <v>76950</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
@@ -4245,13 +4254,13 @@
         <v>165225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B9D55D-841C-427A-8B48-077604091761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999DBAEE-AC14-472C-8B59-72B99FCF9DD3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,7 +4354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4458,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4473,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4488,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,10 +4512,10 @@
         <v>23926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4518,13 +4527,13 @@
         <v>19881</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4533,13 +4542,13 @@
         <v>43807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4563,13 @@
         <v>1648</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4569,13 +4578,13 @@
         <v>2646</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4584,13 +4593,13 @@
         <v>4294</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4673,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4679,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4694,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4718,13 @@
         <v>112344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -4724,13 +4733,13 @@
         <v>92762</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="M9" s="7">
         <v>288</v>
@@ -4778,10 +4787,10 @@
         <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4790,13 +4799,13 @@
         <v>28576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4885,22 +4894,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4924,13 @@
         <v>189359</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>288</v>
@@ -4930,13 +4939,13 @@
         <v>177666</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>570</v>
@@ -4945,13 +4954,13 @@
         <v>367025</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4975,13 @@
         <v>35000</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -4981,13 +4990,13 @@
         <v>29581</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -4996,13 +5005,13 @@
         <v>64581</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,37 +5085,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5130,13 @@
         <v>129861</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -5136,13 +5145,13 @@
         <v>131177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5151,13 +5160,13 @@
         <v>261037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5181,13 @@
         <v>35526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -5187,13 +5196,13 @@
         <v>24820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -5202,13 +5211,13 @@
         <v>60347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5297,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5327,13 +5336,13 @@
         <v>167281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>232</v>
@@ -5342,13 +5351,13 @@
         <v>170789</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>469</v>
@@ -5357,13 +5366,13 @@
         <v>338070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5387,13 @@
         <v>38455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -5393,13 +5402,13 @@
         <v>35730</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5408,13 +5417,13 @@
         <v>74185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5542,13 @@
         <v>622770</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>896</v>
@@ -5548,13 +5557,13 @@
         <v>592276</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>1789</v>
@@ -5563,13 +5572,13 @@
         <v>1215045</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5593,13 @@
         <v>120788</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>164</v>
@@ -5599,13 +5608,13 @@
         <v>111194</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>334</v>
@@ -5614,13 +5623,13 @@
         <v>231983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,7 +5706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F87D58-D09C-432C-BC3A-B8804CEAA962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C67B2-8F15-4062-983F-A06D00C9EC13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5714,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5824,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5854,7 +5863,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -5878,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5908,7 +5917,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5959,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6039,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -6045,7 +6054,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -6060,7 +6069,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -6084,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6099,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6135,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6150,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6236,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -6251,7 +6260,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -6266,7 +6275,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>19</v>
@@ -6290,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6305,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6320,7 +6329,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6356,7 +6365,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6371,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,7 +6451,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -6457,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -6472,7 +6481,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -6648,7 +6657,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -6663,7 +6672,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -6678,7 +6687,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -6702,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6717,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6732,7 +6741,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6768,7 +6777,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6783,7 +6792,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,7 +6863,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>19</v>
@@ -6869,7 +6878,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>19</v>
@@ -6884,7 +6893,7 @@
         <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>19</v>
@@ -6908,7 +6917,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6923,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6938,7 +6947,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,7 +6968,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6974,7 +6983,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6989,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP41-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823BFF6C-5BBE-4534-B535-48B62C1047C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFE5748-048E-437C-9C84-31136A1A96E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13ED17E1-833D-4015-AF00-BD58289A66F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{025C20AA-4B0A-417B-8876-C2B1649312C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="383">
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="335">
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -80,1074 +80,930 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -1157,10 +1013,10 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>99,16%</t>
+  </si>
+  <si>
     <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -1599,8 +1455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C16AD63-ED68-461D-BA0E-EC6508754995}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39C2038-40C8-4CF5-9AFC-0CEF8FAB16F9}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1768,10 +1624,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>129645</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1783,85 +1639,85 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>143466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>273111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6533</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8286</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="7">
         <v>22</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>14819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,54 +1726,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>136178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>151752</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>423</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>287930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1935,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1950,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1965,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,100 +1830,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="D9" s="7">
-        <v>118022</v>
+        <v>178838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>106921</v>
+        <v>199798</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>339</v>
+        <v>589</v>
       </c>
       <c r="N9" s="7">
-        <v>224943</v>
+        <v>378637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>8286</v>
+        <v>15671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>6533</v>
+        <v>11730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>14819</v>
+        <v>27401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,54 +1932,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>126308</v>
+        <v>194509</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>113454</v>
+        <v>211528</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>361</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>239762</v>
+        <v>406038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2141,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2156,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2171,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,100 +2036,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7">
-        <v>199798</v>
+        <v>124370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="I13" s="7">
-        <v>178838</v>
+        <v>136221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>589</v>
+        <v>418</v>
       </c>
       <c r="N13" s="7">
-        <v>378637</v>
+        <v>260590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>11730</v>
+        <v>10903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>15671</v>
+        <v>10931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>27401</v>
+        <v>21834</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,54 +2138,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>211528</v>
+        <v>135273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="I15" s="7">
-        <v>194509</v>
+        <v>147152</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>632</v>
+        <v>453</v>
       </c>
       <c r="N15" s="7">
-        <v>406038</v>
+        <v>282424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2347,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2362,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2377,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,100 +2242,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D17" s="7">
-        <v>136221</v>
+        <v>178620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="I17" s="7">
-        <v>124370</v>
+        <v>181653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="N17" s="7">
-        <v>260590</v>
+        <v>360273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>10931</v>
+        <v>26683</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>10903</v>
+        <v>23555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N18" s="7">
-        <v>21834</v>
+        <v>50238</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,54 +2344,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D19" s="7">
-        <v>147152</v>
+        <v>205303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="I19" s="7">
-        <v>135273</v>
+        <v>205208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>453</v>
+        <v>571</v>
       </c>
       <c r="N19" s="7">
-        <v>282424</v>
+        <v>410511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2553,7 +2409,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2568,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2583,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,100 +2448,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>267</v>
+        <v>916</v>
       </c>
       <c r="D21" s="7">
-        <v>181653</v>
+        <v>611473</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
-        <v>234</v>
+        <v>993</v>
       </c>
       <c r="I21" s="7">
-        <v>178620</v>
+        <v>661138</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>501</v>
+        <v>1909</v>
       </c>
       <c r="N21" s="7">
-        <v>360273</v>
+        <v>1272611</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>23555</v>
+        <v>59790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>26683</v>
+        <v>54502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="N22" s="7">
-        <v>50238</v>
+        <v>114292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,268 +2550,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>302</v>
+        <v>1004</v>
       </c>
       <c r="D23" s="7">
-        <v>205208</v>
+        <v>671263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>269</v>
+        <v>1075</v>
       </c>
       <c r="I23" s="7">
-        <v>205303</v>
+        <v>715640</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>571</v>
+        <v>2079</v>
       </c>
       <c r="N23" s="7">
-        <v>410511</v>
+        <v>1386903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>993</v>
-      </c>
-      <c r="D25" s="7">
-        <v>661138</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="7">
-        <v>916</v>
-      </c>
-      <c r="I25" s="7">
-        <v>611473</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1909</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1272611</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>82</v>
-      </c>
-      <c r="D26" s="7">
-        <v>54502</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="7">
-        <v>88</v>
-      </c>
-      <c r="I26" s="7">
-        <v>59790</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="7">
-        <v>170</v>
-      </c>
-      <c r="N26" s="7">
-        <v>114292</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1075</v>
-      </c>
-      <c r="D27" s="7">
-        <v>715640</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I27" s="7">
-        <v>671263</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2079</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1386903</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2968,8 +2617,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86D1A9-644F-4FF7-A3A3-F5A94CCA3FB2}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0060A0A-8545-4B91-B50D-F0C039DFB5B6}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2985,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3098,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3113,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3128,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,100 +2786,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7">
-        <v>23814</v>
+        <v>128155</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="I5" s="7">
-        <v>21704</v>
+        <v>136434</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>45518</v>
+        <v>264589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>1641</v>
+        <v>11202</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="7">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18250</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="7">
+        <v>29452</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>669</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2310</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,54 +2888,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3304,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3319,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3334,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,100 +2992,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="D9" s="7">
-        <v>112619</v>
+        <v>184441</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="7">
+        <v>298</v>
+      </c>
+      <c r="I9" s="7">
+        <v>205656</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="7">
+        <v>583</v>
+      </c>
+      <c r="N9" s="7">
+        <v>390097</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="7">
-        <v>148</v>
-      </c>
-      <c r="I9" s="7">
-        <v>106451</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="7">
-        <v>307</v>
-      </c>
-      <c r="N9" s="7">
-        <v>219070</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>16610</v>
+        <v>21917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>18179</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="7">
+        <v>60</v>
+      </c>
+      <c r="N10" s="7">
+        <v>40096</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10533</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="7">
-        <v>39</v>
-      </c>
-      <c r="N10" s="7">
-        <v>27143</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,54 +3094,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N11" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3510,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3525,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3540,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,100 +3198,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>205656</v>
+        <v>138949</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
+        <v>224</v>
+      </c>
+      <c r="I13" s="7">
+        <v>146428</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="7">
+        <v>440</v>
+      </c>
+      <c r="N13" s="7">
+        <v>285376</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H13" s="7">
-        <v>285</v>
-      </c>
-      <c r="I13" s="7">
-        <v>184441</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" s="7">
-        <v>583</v>
-      </c>
-      <c r="N13" s="7">
-        <v>390097</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>18179</v>
+        <v>15709</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20164</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="7">
+        <v>57</v>
+      </c>
+      <c r="N14" s="7">
+        <v>35874</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H14" s="7">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21917</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="7">
-        <v>60</v>
-      </c>
-      <c r="N14" s="7">
-        <v>40096</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,54 +3300,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D15" s="7">
-        <v>223835</v>
+        <v>154658</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>643</v>
+        <v>497</v>
       </c>
       <c r="N15" s="7">
-        <v>430193</v>
+        <v>321250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3716,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3731,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3746,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,100 +3404,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D17" s="7">
-        <v>146428</v>
+        <v>182179</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>240</v>
+      </c>
+      <c r="I17" s="7">
+        <v>176714</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="7">
+        <v>478</v>
+      </c>
+      <c r="N17" s="7">
+        <v>358893</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="7">
-        <v>216</v>
-      </c>
-      <c r="I17" s="7">
-        <v>138949</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17" s="7">
-        <v>440</v>
-      </c>
-      <c r="N17" s="7">
-        <v>285376</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>20164</v>
+        <v>28121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>15709</v>
+        <v>31682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N18" s="7">
-        <v>35874</v>
+        <v>59803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,54 +3506,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>166592</v>
+        <v>210300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I19" s="7">
-        <v>154658</v>
+        <v>208396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="N19" s="7">
-        <v>321250</v>
+        <v>418696</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3922,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3937,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3952,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,100 +3610,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>240</v>
+        <v>912</v>
       </c>
       <c r="D21" s="7">
-        <v>176714</v>
+        <v>633723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H21" s="7">
-        <v>238</v>
+        <v>947</v>
       </c>
       <c r="I21" s="7">
-        <v>182179</v>
+        <v>665232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
-        <v>478</v>
+        <v>1859</v>
       </c>
       <c r="N21" s="7">
-        <v>358893</v>
+        <v>1298955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>31682</v>
+        <v>76950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>28121</v>
+        <v>88275</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="N22" s="7">
-        <v>59803</v>
+        <v>165225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,268 +3712,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>283</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="7">
-        <v>208396</v>
+        <v>710673</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>275</v>
+        <v>1074</v>
       </c>
       <c r="I23" s="7">
-        <v>210300</v>
+        <v>753507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>558</v>
+        <v>2098</v>
       </c>
       <c r="N23" s="7">
-        <v>418696</v>
+        <v>1464180</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>947</v>
-      </c>
-      <c r="D25" s="7">
-        <v>665232</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="7">
-        <v>912</v>
-      </c>
-      <c r="I25" s="7">
-        <v>633723</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1859</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1298955</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7">
-        <v>88275</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H26" s="7">
-        <v>112</v>
-      </c>
-      <c r="I26" s="7">
-        <v>76950</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" s="7">
-        <v>239</v>
-      </c>
-      <c r="N26" s="7">
-        <v>165225</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D27" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I27" s="7">
-        <v>710673</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1464180</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>130</v>
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4337,8 +3779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999DBAEE-AC14-472C-8B59-72B99FCF9DD3}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2948E4D2-BB9C-49A1-A0F3-078D29FF0B43}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4354,7 +3796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4467,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4482,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4497,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,100 +3948,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7">
-        <v>23926</v>
+        <v>112643</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>19881</v>
+        <v>136270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>43807</v>
+        <v>248913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>1648</v>
+        <v>21064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2646</v>
+        <v>11806</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>4294</v>
+        <v>32870</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,54 +4050,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4673,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4688,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4703,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,100 +4154,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="D9" s="7">
-        <v>112344</v>
+        <v>177666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="I9" s="7">
-        <v>92762</v>
+        <v>189359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
-        <v>288</v>
+        <v>570</v>
       </c>
       <c r="N9" s="7">
-        <v>205106</v>
+        <v>367025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>10158</v>
+        <v>29581</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>18418</v>
+        <v>35000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>28576</v>
+        <v>64581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,54 +4256,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4879,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4894,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4909,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,100 +4360,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7">
-        <v>189359</v>
+        <v>131177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="I13" s="7">
-        <v>177666</v>
+        <v>129861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
-        <v>570</v>
+        <v>413</v>
       </c>
       <c r="N13" s="7">
-        <v>367025</v>
+        <v>261037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>35000</v>
+        <v>24820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>29581</v>
+        <v>35526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>64581</v>
+        <v>60347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,54 +4462,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="I15" s="7">
-        <v>207247</v>
+        <v>165387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>505</v>
       </c>
       <c r="N15" s="7">
-        <v>431606</v>
+        <v>321384</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5085,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5100,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5115,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,100 +4566,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
-        <v>129861</v>
+        <v>170789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>131177</v>
+        <v>167281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="N17" s="7">
-        <v>261037</v>
+        <v>338070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>35526</v>
+        <v>35730</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7">
-        <v>24820</v>
+        <v>38455</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
-        <v>60347</v>
+        <v>74185</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,54 +4668,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="D19" s="7">
-        <v>165387</v>
+        <v>206519</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="N19" s="7">
-        <v>321384</v>
+        <v>412255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5291,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5306,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5321,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,100 +4772,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>237</v>
+        <v>896</v>
       </c>
       <c r="D21" s="7">
-        <v>167281</v>
+        <v>592276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="H21" s="7">
-        <v>232</v>
+        <v>893</v>
       </c>
       <c r="I21" s="7">
-        <v>170789</v>
+        <v>622770</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
-        <v>469</v>
+        <v>1789</v>
       </c>
       <c r="N21" s="7">
-        <v>338070</v>
+        <v>1215045</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>38455</v>
+        <v>111194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="I22" s="7">
-        <v>35730</v>
+        <v>120788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M22" s="7">
         <v>334</v>
       </c>
-      <c r="M22" s="7">
-        <v>101</v>
-      </c>
       <c r="N22" s="7">
-        <v>74185</v>
+        <v>231983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,268 +4874,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1060</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>703470</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>280</v>
+        <v>1063</v>
       </c>
       <c r="I23" s="7">
-        <v>206519</v>
+        <v>743558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>570</v>
+        <v>2123</v>
       </c>
       <c r="N23" s="7">
-        <v>412255</v>
+        <v>1447028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>893</v>
-      </c>
-      <c r="D25" s="7">
-        <v>622770</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H25" s="7">
-        <v>896</v>
-      </c>
-      <c r="I25" s="7">
-        <v>592276</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1789</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1215045</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>170</v>
-      </c>
-      <c r="D26" s="7">
-        <v>120788</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="7">
-        <v>164</v>
-      </c>
-      <c r="I26" s="7">
-        <v>111194</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M26" s="7">
-        <v>334</v>
-      </c>
-      <c r="N26" s="7">
-        <v>231983</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D27" s="7">
-        <v>743558</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I27" s="7">
-        <v>703470</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1447028</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>130</v>
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5706,8 +4941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C67B2-8F15-4062-983F-A06D00C9EC13}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC24C45-AE2E-437C-AA4F-FAFCD7CE590A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5723,7 +4958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5824,49 +5059,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5902,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5917,13 +5152,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5938,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5953,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5968,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,102 +5212,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N8" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6108,7 +5343,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6123,13 +5358,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -6144,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6159,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6174,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,102 +5418,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6314,7 +5549,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6329,13 +5564,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -6350,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6365,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6380,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,102 +5624,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D16" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N16" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6520,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6535,13 +5770,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6556,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6571,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6586,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,102 +5830,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N19" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I20" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6726,7 +5961,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6741,13 +5976,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6762,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6777,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6792,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,268 +6036,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>977</v>
-      </c>
-      <c r="D24" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>943</v>
-      </c>
-      <c r="I24" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>943</v>
-      </c>
-      <c r="I27" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>130</v>
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
